--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl1</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angptl1</t>
-  </si>
-  <si>
-    <t>Tek</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.008964666666666668</v>
+        <v>31.36337633333333</v>
       </c>
       <c r="H2">
-        <v>0.026894</v>
+        <v>94.090129</v>
       </c>
       <c r="I2">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795565</v>
       </c>
       <c r="J2">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.37835899999999</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N2">
-        <v>154.135077</v>
+        <v>175.542523</v>
       </c>
       <c r="O2">
-        <v>0.8798212945621328</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P2">
-        <v>0.879821294562133</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q2">
-        <v>0.4605898623153333</v>
+        <v>1835.202070450608</v>
       </c>
       <c r="R2">
-        <v>4.145308760838</v>
+        <v>16516.81863405547</v>
       </c>
       <c r="S2">
-        <v>0.0002380174342616429</v>
+        <v>0.9139487723555947</v>
       </c>
       <c r="T2">
-        <v>0.000238017434261643</v>
+        <v>0.9139487723555948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.008964666666666668</v>
+        <v>31.36337633333333</v>
       </c>
       <c r="H3">
-        <v>0.026894</v>
+        <v>94.090129</v>
       </c>
       <c r="I3">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795565</v>
       </c>
       <c r="J3">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.625225</v>
       </c>
       <c r="O3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P3">
-        <v>0.07206628121150001</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q3">
-        <v>0.03772697790555556</v>
+        <v>131.9898943226695</v>
       </c>
       <c r="R3">
-        <v>0.33954280115</v>
+        <v>1187.909048904025</v>
       </c>
       <c r="S3">
-        <v>1.949604022630067E-05</v>
+        <v>0.06573227211427948</v>
       </c>
       <c r="T3">
-        <v>1.949604022630067E-05</v>
+        <v>0.06573227211427947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.008964666666666668</v>
+        <v>31.36337633333333</v>
       </c>
       <c r="H4">
-        <v>0.026894</v>
+        <v>94.090129</v>
       </c>
       <c r="I4">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795565</v>
       </c>
       <c r="J4">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795566</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.568043</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N4">
-        <v>7.704129</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O4">
-        <v>0.04397608177309095</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P4">
-        <v>0.04397608177309097</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q4">
-        <v>0.02302164948066667</v>
+        <v>6.138701377429446</v>
       </c>
       <c r="R4">
-        <v>0.207194845326</v>
+        <v>55.24831239686501</v>
       </c>
       <c r="S4">
-        <v>1.189681838482954E-05</v>
+        <v>0.003057133968022209</v>
       </c>
       <c r="T4">
-        <v>1.189681838482955E-05</v>
+        <v>0.003057133968022209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,75 +711,75 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.008964666666666668</v>
+        <v>31.36337633333333</v>
       </c>
       <c r="H5">
-        <v>0.026894</v>
+        <v>94.090129</v>
       </c>
       <c r="I5">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795565</v>
       </c>
       <c r="J5">
-        <v>0.0002705292946792096</v>
+        <v>0.9925580820795566</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2415473333333333</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N5">
-        <v>0.724642</v>
+        <v>1.816984</v>
       </c>
       <c r="O5">
-        <v>0.004136342453276182</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P5">
-        <v>0.004136342453276183</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q5">
-        <v>0.002165391327555556</v>
+        <v>18.99558432788178</v>
       </c>
       <c r="R5">
-        <v>0.019488521948</v>
+        <v>170.960258950936</v>
       </c>
       <c r="S5">
-        <v>1.119001806436477E-06</v>
+        <v>0.009459988769728219</v>
       </c>
       <c r="T5">
-        <v>1.119001806436477E-06</v>
+        <v>0.009459988769728219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>94.090129</v>
       </c>
       <c r="I6">
-        <v>0.9464615243045231</v>
+        <v>0.9925580820795565</v>
       </c>
       <c r="J6">
-        <v>0.9464615243045232</v>
+        <v>0.9925580820795566</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>51.37835899999999</v>
+        <v>0.023043</v>
       </c>
       <c r="N6">
-        <v>154.135077</v>
+        <v>0.069129</v>
       </c>
       <c r="O6">
-        <v>0.8798212945621328</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P6">
-        <v>0.879821294562133</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q6">
-        <v>1611.398808706103</v>
+        <v>0.7227062808489999</v>
       </c>
       <c r="R6">
-        <v>14502.58927835493</v>
+        <v>6.504356527641</v>
       </c>
       <c r="S6">
-        <v>0.832717003566855</v>
+        <v>0.0003599148719320269</v>
       </c>
       <c r="T6">
-        <v>0.8327170035668553</v>
+        <v>0.000359914871932027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>31.36337633333333</v>
+        <v>0.1453933333333333</v>
       </c>
       <c r="H7">
-        <v>94.090129</v>
+        <v>0.43618</v>
       </c>
       <c r="I7">
-        <v>0.9464615243045231</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="J7">
-        <v>0.9464615243045232</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.208408333333334</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N7">
-        <v>12.625225</v>
+        <v>175.542523</v>
       </c>
       <c r="O7">
-        <v>0.07206628121150001</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P7">
-        <v>0.07206628121150001</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q7">
-        <v>131.9898943226695</v>
+        <v>8.507570853571112</v>
       </c>
       <c r="R7">
-        <v>1187.909048904025</v>
+        <v>76.56813768214001</v>
       </c>
       <c r="S7">
-        <v>0.06820796236639472</v>
+        <v>0.004236854383801125</v>
       </c>
       <c r="T7">
-        <v>0.06820796236639472</v>
+        <v>0.004236854383801125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>31.36337633333333</v>
+        <v>0.1453933333333333</v>
       </c>
       <c r="H8">
-        <v>94.090129</v>
+        <v>0.43618</v>
       </c>
       <c r="I8">
-        <v>0.9464615243045231</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="J8">
-        <v>0.9464615243045232</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.568043</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N8">
-        <v>7.704129</v>
+        <v>12.625225</v>
       </c>
       <c r="O8">
-        <v>0.04397608177309095</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P8">
-        <v>0.04397608177309097</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q8">
-        <v>80.54249904918234</v>
+        <v>0.6118745156111113</v>
       </c>
       <c r="R8">
-        <v>724.882491442641</v>
+        <v>5.506870640500001</v>
       </c>
       <c r="S8">
-        <v>0.04162166938790002</v>
+        <v>0.0003047195572535183</v>
       </c>
       <c r="T8">
-        <v>0.04162166938790004</v>
+        <v>0.0003047195572535182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>31.36337633333333</v>
+        <v>0.1453933333333333</v>
       </c>
       <c r="H9">
-        <v>94.090129</v>
+        <v>0.43618</v>
       </c>
       <c r="I9">
-        <v>0.9464615243045231</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="J9">
-        <v>0.9464615243045232</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,60 +992,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2415473333333333</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N9">
-        <v>0.724642</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O9">
-        <v>0.004136342453276182</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P9">
-        <v>0.004136342453276183</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q9">
-        <v>7.575739917646445</v>
+        <v>0.02845759481111112</v>
       </c>
       <c r="R9">
-        <v>68.181659258818</v>
+        <v>0.2561183533</v>
       </c>
       <c r="S9">
-        <v>0.003914888983373286</v>
+        <v>1.417216352389024E-05</v>
       </c>
       <c r="T9">
-        <v>0.003914888983373286</v>
+        <v>1.417216352389024E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2668206666666667</v>
+        <v>0.1453933333333333</v>
       </c>
       <c r="H10">
-        <v>0.800462</v>
+        <v>0.43618</v>
       </c>
       <c r="I10">
-        <v>0.008051923115844035</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="J10">
-        <v>0.008051923115844035</v>
+        <v>0.004601268898690329</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1054,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.37835899999999</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N10">
-        <v>154.135077</v>
+        <v>1.816984</v>
       </c>
       <c r="O10">
-        <v>0.8798212945621328</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P10">
-        <v>0.879821294562133</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q10">
-        <v>13.70880800061933</v>
+        <v>0.08805912012444445</v>
       </c>
       <c r="R10">
-        <v>123.379272005574</v>
+        <v>0.79253208112</v>
       </c>
       <c r="S10">
-        <v>0.00708425341949666</v>
+        <v>4.385431230070962E-05</v>
       </c>
       <c r="T10">
-        <v>0.007084253419496662</v>
+        <v>4.385431230070962E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1453933333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.43618</v>
+      </c>
+      <c r="I11">
+        <v>0.004601268898690329</v>
+      </c>
+      <c r="J11">
+        <v>0.004601268898690329</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.2668206666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.800462</v>
-      </c>
-      <c r="I11">
-        <v>0.008051923115844035</v>
-      </c>
-      <c r="J11">
-        <v>0.008051923115844035</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>4.208408333333334</v>
+        <v>0.023043</v>
       </c>
       <c r="N11">
-        <v>12.625225</v>
+        <v>0.069129</v>
       </c>
       <c r="O11">
-        <v>0.07206628121150001</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P11">
-        <v>0.07206628121150001</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q11">
-        <v>1.122890317105556</v>
+        <v>0.00335029858</v>
       </c>
       <c r="R11">
-        <v>10.10601285395</v>
+        <v>0.03015268722</v>
       </c>
       <c r="S11">
-        <v>0.0005802721555597935</v>
+        <v>1.668481811086809E-06</v>
       </c>
       <c r="T11">
-        <v>0.0005802721555597935</v>
+        <v>1.668481811086809E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2668206666666667</v>
+        <v>0.08976033333333333</v>
       </c>
       <c r="H12">
-        <v>0.800462</v>
+        <v>0.269281</v>
       </c>
       <c r="I12">
-        <v>0.008051923115844035</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="J12">
-        <v>0.008051923115844035</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.568043</v>
+        <v>58.51417433333334</v>
       </c>
       <c r="N12">
-        <v>7.704129</v>
+        <v>175.542523</v>
       </c>
       <c r="O12">
-        <v>0.04397608177309095</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="P12">
-        <v>0.04397608177309097</v>
+        <v>0.9208013000516164</v>
       </c>
       <c r="Q12">
-        <v>0.6852069452886665</v>
+        <v>5.252251792884778</v>
       </c>
       <c r="R12">
-        <v>6.166862507598</v>
+        <v>47.27026613596301</v>
       </c>
       <c r="S12">
-        <v>0.0003540920293729986</v>
+        <v>0.00261567331222053</v>
       </c>
       <c r="T12">
-        <v>0.0003540920293729987</v>
+        <v>0.00261567331222053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,155 +1207,155 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2668206666666667</v>
+        <v>0.08976033333333333</v>
       </c>
       <c r="H13">
-        <v>0.800462</v>
+        <v>0.269281</v>
       </c>
       <c r="I13">
-        <v>0.008051923115844035</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="J13">
-        <v>0.008051923115844035</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2415473333333333</v>
+        <v>4.208408333333334</v>
       </c>
       <c r="N13">
-        <v>0.724642</v>
+        <v>12.625225</v>
       </c>
       <c r="O13">
-        <v>0.004136342453276182</v>
+        <v>0.06622511397676659</v>
       </c>
       <c r="P13">
-        <v>0.004136342453276183</v>
+        <v>0.06622511397676657</v>
       </c>
       <c r="Q13">
-        <v>0.06444982051155555</v>
+        <v>0.3777481348027778</v>
       </c>
       <c r="R13">
-        <v>0.580048384604</v>
+        <v>3.399733213225</v>
       </c>
       <c r="S13">
-        <v>3.330551141458151E-05</v>
+        <v>0.000188122305233584</v>
       </c>
       <c r="T13">
-        <v>3.330551141458152E-05</v>
+        <v>0.0001881223052335839</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.498346333333333</v>
+        <v>0.08976033333333333</v>
       </c>
       <c r="H14">
-        <v>4.495039</v>
+        <v>0.269281</v>
       </c>
       <c r="I14">
-        <v>0.04521602328495351</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="J14">
-        <v>0.04521602328495351</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>51.37835899999999</v>
+        <v>0.1957283333333334</v>
       </c>
       <c r="N14">
-        <v>154.135077</v>
+        <v>0.5871850000000001</v>
       </c>
       <c r="O14">
-        <v>0.8798212945621328</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="P14">
-        <v>0.879821294562133</v>
+        <v>0.003080055488155473</v>
       </c>
       <c r="Q14">
-        <v>76.98257582033365</v>
+        <v>0.01756864044277778</v>
       </c>
       <c r="R14">
-        <v>692.8431823830028</v>
+        <v>0.158117763985</v>
       </c>
       <c r="S14">
-        <v>0.03978202014151933</v>
+        <v>8.749356609373853E-06</v>
       </c>
       <c r="T14">
-        <v>0.03978202014151935</v>
+        <v>8.749356609373852E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.498346333333333</v>
+        <v>0.08976033333333333</v>
       </c>
       <c r="H15">
-        <v>4.495039</v>
+        <v>0.269281</v>
       </c>
       <c r="I15">
-        <v>0.04521602328495351</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="J15">
-        <v>0.04521602328495351</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,152 +1364,90 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.208408333333334</v>
+        <v>0.6056613333333333</v>
       </c>
       <c r="N15">
-        <v>12.625225</v>
+        <v>1.816984</v>
       </c>
       <c r="O15">
-        <v>0.07206628121150001</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="P15">
-        <v>0.07206628121150001</v>
+        <v>0.00953091707228673</v>
       </c>
       <c r="Q15">
-        <v>6.305653195419445</v>
+        <v>0.0543643631671111</v>
       </c>
       <c r="R15">
-        <v>56.750878758775</v>
+        <v>0.4892792685039999</v>
       </c>
       <c r="S15">
-        <v>0.003258550649319192</v>
+        <v>2.707399025780042E-05</v>
       </c>
       <c r="T15">
-        <v>0.003258550649319192</v>
+        <v>2.707399025780042E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.498346333333333</v>
+        <v>0.08976033333333333</v>
       </c>
       <c r="H16">
-        <v>4.495039</v>
+        <v>0.269281</v>
       </c>
       <c r="I16">
-        <v>0.04521602328495351</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="J16">
-        <v>0.04521602328495351</v>
+        <v>0.002840649021753016</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.568043</v>
+        <v>0.023043</v>
       </c>
       <c r="N16">
-        <v>7.704129</v>
+        <v>0.069129</v>
       </c>
       <c r="O16">
-        <v>0.04397608177309095</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="P16">
-        <v>0.04397608177309097</v>
+        <v>0.0003626134111748421</v>
       </c>
       <c r="Q16">
-        <v>3.847817812892333</v>
+        <v>0.002068347361</v>
       </c>
       <c r="R16">
-        <v>34.630360316031</v>
+        <v>0.018615126249</v>
       </c>
       <c r="S16">
-        <v>0.0019884235374331</v>
+        <v>1.030057431728339E-06</v>
       </c>
       <c r="T16">
-        <v>0.001988423537433101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.498346333333333</v>
-      </c>
-      <c r="H17">
-        <v>4.495039</v>
-      </c>
-      <c r="I17">
-        <v>0.04521602328495351</v>
-      </c>
-      <c r="J17">
-        <v>0.04521602328495351</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.2415473333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.724642</v>
-      </c>
-      <c r="O17">
-        <v>0.004136342453276182</v>
-      </c>
-      <c r="P17">
-        <v>0.004136342453276183</v>
-      </c>
-      <c r="Q17">
-        <v>0.3619215612264444</v>
-      </c>
-      <c r="R17">
-        <v>3.257294051038</v>
-      </c>
-      <c r="S17">
-        <v>0.0001870289566818775</v>
-      </c>
-      <c r="T17">
-        <v>0.0001870289566818776</v>
+        <v>1.030057431728339E-06</v>
       </c>
     </row>
   </sheetData>
